--- a/PyWorld3_Update/Validation PyWorld3-05.xlsx
+++ b/PyWorld3_Update/Validation PyWorld3-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\PyWorld3_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD902E3-4A81-4CB3-A85A-D85F83E9CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3408B1-9184-48E4-A5DD-2A1313BE1256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27704C69-15BF-48EB-BCE6-B43F450D3EAD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27704C69-15BF-48EB-BCE6-B43F450D3EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Szenario 1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Ecological Footprint</a:t>
+              <a:t>Ecological footprint, comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1452,7 +1452,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>PyWorld3-04</c:v>
+            <c:v>PyWorld3-05</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2701,7 +2701,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LtG Programm</c:v>
+            <c:v>LtG CD</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -29003,8 +29003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B995CD00-D817-4FD3-A6F5-5E0C9F4896EB}">
   <dimension ref="B2:W204"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39574,7 +39574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE24939-CFAE-444E-91C2-D77539AD9DDC}">
   <dimension ref="A2:X205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
